--- a/HT.xlsx
+++ b/HT.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAUSAC\Documents\Estadistica_agrupados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAUSAC\Documents\MTCDPR_Datos_agrupados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8916C01-FF87-4125-9293-80923232D2F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D88A45-A884-4FDE-B416-7A85BC834144}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{BC5CBE3A-88D4-418F-8AE7-6D6786103F94}"/>
   </bookViews>
   <sheets>
     <sheet name="ejercicio1" sheetId="1" r:id="rId1"/>
-    <sheet name="ejercicio2" sheetId="2" r:id="rId2"/>
+    <sheet name="ejercicio2" sheetId="3" r:id="rId2"/>
+    <sheet name="ejercicio3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Clase</t>
   </si>
@@ -62,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +87,12 @@
       <color rgb="FF000000"/>
       <name val="Oswald"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -164,11 +171,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -184,6 +202,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,7 +524,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -770,10 +791,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C77A50-C70C-404B-A2E4-4B7DB5983E45}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.99</v>
+      </c>
+      <c r="E3" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="E4" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="E5" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3.39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3.19</v>
+      </c>
+      <c r="E6" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3.39</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.79</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.59</v>
+      </c>
+      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3.79</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3.99</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.59</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D4D335-8FD4-42BB-A706-E3AF15FF6804}">
   <dimension ref="A1:A261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/HT.xlsx
+++ b/HT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAUSAC\Documents\MTCDPR_Datos_agrupados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D88A45-A884-4FDE-B416-7A85BC834144}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582CF5F1-B3F5-42BC-A2F3-019ADC5AD1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{BC5CBE3A-88D4-418F-8AE7-6D6786103F94}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -206,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,35 +540,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -584,12 +600,12 @@
         <v>0.44</v>
       </c>
       <c r="H2" s="1">
-        <f>D2*E2</f>
+        <f>E2*D2</f>
         <v>962.85</v>
       </c>
       <c r="I2">
-        <f>E2*D2^2</f>
-        <v>44146.672500000008</v>
+        <f>H2*D2</f>
+        <v>44146.672500000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
@@ -615,12 +631,12 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H8" si="0">D3*E3</f>
+        <f t="shared" ref="H3:H8" si="0">E3*D3</f>
         <v>656.75</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="1">E3*D3^2</f>
-        <v>86264.112499999988</v>
+        <f t="shared" ref="I3:I8" si="1">H3*D3</f>
+        <v>86264.112500000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
@@ -713,7 +729,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>902565.7350000001</v>
+        <v>902565.73500000022</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
@@ -795,7 +811,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -806,31 +822,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -850,6 +866,22 @@
       <c r="E2" s="7">
         <v>5</v>
       </c>
+      <c r="F2">
+        <f>E2</f>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f>E2/$F$9</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="H2">
+        <f>E2*D2</f>
+        <v>7.95</v>
+      </c>
+      <c r="I2">
+        <f>H2*D2</f>
+        <v>12.640500000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7">
@@ -867,6 +899,22 @@
       <c r="E3" s="7">
         <v>14</v>
       </c>
+      <c r="F3">
+        <f>F2+E3</f>
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">E3/$F$9</f>
+        <v>5.3846153846153849E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="1">E3*D3</f>
+        <v>27.86</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="2">H3*D3</f>
+        <v>55.441400000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7">
@@ -884,6 +932,22 @@
       <c r="E4" s="7">
         <v>51</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F9" si="3">F3+E4</f>
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.19615384615384615</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>121.89</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>291.31710000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7">
@@ -901,6 +965,22 @@
       <c r="E5" s="7">
         <v>81</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.31153846153846154</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>225.99</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>630.51210000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7">
@@ -918,6 +998,22 @@
       <c r="E6" s="7">
         <v>76</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.29230769230769232</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>242.44</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>773.3836</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
@@ -935,6 +1031,22 @@
       <c r="E7" s="7">
         <v>24</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>86.16</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>309.31439999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7">
@@ -952,6 +1064,22 @@
       <c r="E8" s="7">
         <v>6</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.3076923076923078E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>23.94</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>95.520600000000016</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7">
@@ -968,6 +1096,22 @@
       </c>
       <c r="E9" s="7">
         <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.1538461538461539E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>13.169999999999998</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>57.816299999999991</v>
       </c>
     </row>
   </sheetData>
